--- a/biology/Médecine/Bernardino_Baldini/Bernardino_Baldini.xlsx
+++ b/biology/Médecine/Bernardino_Baldini/Bernardino_Baldini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernardino Baldini est un médecin, philosophe, mathématicien, et poète italien du 16e siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernardino Baldini naquit en 1515, près d'Intra sur le Lac Majeur, d'une famille originaire de Novare. Il fit ses études de philosophie à Bologne. Membre de l'Accademia degli Accesi, il fut professeur de médecine à l’Université de Pavie, et enseigna aussi publiquement les mathématiques à Milan. Il mourut dans cette ville, le 12 janvier 1600, âgé de 85 ans.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses principaux ouvrages imprimés sont :
 Dialogi duo, Milan, 1558, in-8°. L’un de ces dialogues traite de Multitudine rerum et de Unitate ejus quod est ; l’autre, de Materia omnium disciplinarum.
